--- a/public/templates/plantilla.xlsx
+++ b/public/templates/plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ejemplo\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97493EFD-6AF3-479C-B6D1-C4473AC54B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE01DDFF-06F9-4FA1-8EE1-55584466522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="2025" windowWidth="21570" windowHeight="11280" xr2:uid="{952A693B-ACA7-479B-A30B-AFB3E861FCED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{952A693B-ACA7-479B-A30B-AFB3E861FCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>N°</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>FECHA</t>
   </si>
+  <si>
+    <t>REPORTE DE USUARIOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +68,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -95,9 +130,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,19 +457,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DBC1A8-A501-45C4-B658-6C3900E1D4AA}">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -438,8 +487,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>